--- a/bin/xlsx/enum.xlsx
+++ b/bin/xlsx/enum.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="物品大类" sheetId="1" r:id="rId1"/>
-    <sheet name="物品小类" sheetId="2" r:id="rId2"/>
-    <sheet name="尺寸" sheetId="3" r:id="rId3"/>
+    <sheet name="境界" sheetId="5" r:id="rId1"/>
+    <sheet name="星级" sheetId="1" r:id="rId2"/>
+    <sheet name="装备位置" sheetId="2" r:id="rId3"/>
+    <sheet name="法宝类别" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>STRING</t>
   </si>
@@ -34,9 +35,6 @@
     <t>INT</t>
   </si>
   <si>
-    <t>alias</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -46,29 +44,215 @@
     <t>ID</t>
   </si>
   <si>
-    <t>炮台</t>
-  </si>
-  <si>
-    <t>激光炮塔</t>
-  </si>
-  <si>
-    <t>小型</t>
-  </si>
-  <si>
-    <t>中型</t>
-  </si>
-  <si>
-    <t>大型</t>
-  </si>
-  <si>
-    <t>超大型</t>
-  </si>
-  <si>
-    <t>采矿器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾</t>
+    <t>不入品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法宝类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动加成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下品法器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中品法器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上品法器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>极品法器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下品法宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中品法宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上品法宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>极品法宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下品灵宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中品灵宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上品灵宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>极品灵宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下品灵器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中品灵器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上品灵器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>极品灵器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后天武者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先天武者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>练气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筑基</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金丹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元婴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>练虚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大乘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡劫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人界</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵界</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行法宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加持飞剑类法术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行属性加持，可释放特定法术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力修法宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力修法术加持</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法阵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符、符宝 释放固定威力法术（消耗不同）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗能大，持续释放一组法术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -510,63 +694,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1025" width="11.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -580,150 +1058,234 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B6"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" customWidth="1"/>
+    <col min="3" max="3" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="8.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B7"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" customWidth="1"/>
+    <col min="3" max="3" width="39.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/bin/xlsx/enum.xlsx
+++ b/bin/xlsx/enum.xlsx
@@ -15,7 +15,8 @@
     <sheet name="境界" sheetId="5" r:id="rId1"/>
     <sheet name="星级" sheetId="1" r:id="rId2"/>
     <sheet name="装备位置" sheetId="2" r:id="rId3"/>
-    <sheet name="法宝类别" sheetId="4" r:id="rId4"/>
+    <sheet name="力量属性" sheetId="6" r:id="rId4"/>
+    <sheet name="法宝类别" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
   <si>
     <t>STRING</t>
   </si>
@@ -253,6 +254,34 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -870,7 +899,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1063,7 +1092,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1181,11 +1210,116 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46FDF0A-8A43-4AE6-8372-E440DC2245FC}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/bin/xlsx/enum.xlsx
+++ b/bin/xlsx/enum.xlsx
@@ -15,8 +15,9 @@
     <sheet name="境界" sheetId="5" r:id="rId1"/>
     <sheet name="星级" sheetId="1" r:id="rId2"/>
     <sheet name="装备位置" sheetId="2" r:id="rId3"/>
-    <sheet name="力量属性" sheetId="6" r:id="rId4"/>
+    <sheet name="属性" sheetId="6" r:id="rId4"/>
     <sheet name="法宝类别" sheetId="4" r:id="rId5"/>
+    <sheet name="出手类型" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <t>STRING</t>
   </si>
@@ -282,6 +283,50 @@
   </si>
   <si>
     <t>力量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复效果，比如回春术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害效果，比如御剑术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增益效果，比如半龙化增加防御力，攻击力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减益效果，缚神术，控制对方行动条增长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾效果，增加一层防御血量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -899,7 +944,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1214,7 +1259,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1319,7 +1364,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1422,4 +1467,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8141CB3-610D-499C-BEC0-9F6D5C3813A5}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bin/xlsx/enum.xlsx
+++ b/bin/xlsx/enum.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\paladin\bin\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\xiuxian\dbc\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="属性" sheetId="6" r:id="rId4"/>
     <sheet name="法宝类别" sheetId="4" r:id="rId5"/>
     <sheet name="出手类型" sheetId="7" r:id="rId6"/>
+    <sheet name="炼丹境界" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
   <si>
     <t>STRING</t>
   </si>
@@ -158,14 +159,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>后天武者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先天武者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>练气</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -327,6 +320,62 @@
   </si>
   <si>
     <t>护盾效果，增加一层防御血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级炼丹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级炼丹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级炼丹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大师级炼丹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗师级炼丹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>练气、筑基</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金丹、元婴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金丹、元婴、化神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>练虚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>练虚、合体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合体、大乘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大乘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>练虚、合体、大乘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谪仙</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -383,8 +432,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -768,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -792,7 +844,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -820,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -831,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -842,7 +894,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -853,7 +905,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -864,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -875,7 +927,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -886,7 +938,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -897,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -908,34 +960,13 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
         <v>43</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -943,13 +974,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="1" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -965,7 +998,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1000,6 +1033,9 @@
       <c r="B5">
         <v>2</v>
       </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1008,6 +1044,9 @@
       <c r="B6">
         <v>3</v>
       </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1016,6 +1055,9 @@
       <c r="B7">
         <v>4</v>
       </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1024,6 +1066,9 @@
       <c r="B8">
         <v>5</v>
       </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1032,6 +1077,9 @@
       <c r="B9">
         <v>6</v>
       </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1040,6 +1088,9 @@
       <c r="B10">
         <v>7</v>
       </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1048,6 +1099,9 @@
       <c r="B11">
         <v>8</v>
       </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1056,6 +1110,9 @@
       <c r="B12">
         <v>9</v>
       </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1064,6 +1121,9 @@
       <c r="B13">
         <v>10</v>
       </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1072,6 +1132,9 @@
       <c r="B14">
         <v>11</v>
       </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1080,6 +1143,9 @@
       <c r="B15">
         <v>12</v>
       </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1088,37 +1154,52 @@
       <c r="B16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
       <c r="B18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20">
         <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1161,7 +1242,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1194,7 +1275,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1205,7 +1286,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1255,10 +1336,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46FDF0A-8A43-4AE6-8372-E440DC2245FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -1277,7 +1358,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1299,7 +1380,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1307,7 +1388,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1315,7 +1396,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1323,7 +1404,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1331,7 +1412,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1339,7 +1420,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -1347,7 +1428,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -1360,7 +1441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1387,7 +1468,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1415,51 +1496,51 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1470,7 +1551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8141CB3-610D-499C-BEC0-9F6D5C3813A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1479,7 +1560,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1495,7 +1576,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1506,7 +1587,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1517,57 +1598,150 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.265625" customWidth="1"/>
+    <col min="2" max="3" width="9.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>75</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
